--- a/DATA_goal/Junction_Flooding_498.xlsx
+++ b/DATA_goal/Junction_Flooding_498.xlsx
@@ -450,24 +450,24 @@
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
@@ -655,103 +655,103 @@
         <v>44829.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.91</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.14</v>
+        <v>21.43</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.58</v>
+        <v>15.75</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.43</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.12</v>
+        <v>21.23</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.93</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.53</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.37</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>11.28</v>
+        <v>112.77</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.17</v>
+        <v>21.72</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.36</v>
+        <v>13.64</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.42</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.85</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.44</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.6</v>
+        <v>5.96</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.92</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.92</v>
+        <v>19.24</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44829.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.44</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.43</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.66</v>
+        <v>16.62</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.67</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.69</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.28</v>
+        <v>22.78</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.25</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.06</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.26</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.68</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.19</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.93</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>8.42</v>
+        <v>84.23</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.69</v>
+        <v>16.87</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.09</v>
+        <v>10.85</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.76</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.22</v>
+        <v>12.2</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.9</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.52</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.3</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.1</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.12</v>
+        <v>21.21</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.88</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44829.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.85</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.09</v>
       </c>
       <c r="F4" s="4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.18</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>0.99</v>
+        <v>9.93</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.05</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.4</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.35</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.17</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44829.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.18</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.22</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.18</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.22</v>
+        <v>12.16</v>
       </c>
       <c r="I5" s="4" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>44.12</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.52</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_498.xlsx
+++ b/DATA_goal/Junction_Flooding_498.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44829.54861111111</v>
+        <v>45179.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.69</v>
+        <v>7.205</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.9</v>
+        <v>5.605</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.91</v>
+        <v>1.192</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>21.43</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>15.75</v>
+        <v>12.374</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>7.43</v>
+        <v>4.794</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>21.23</v>
+        <v>14.798</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>12.15</v>
+        <v>8.957000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.04</v>
+        <v>4.429</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.42</v>
+        <v>5.631</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.57</v>
+        <v>6.249</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>7.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.53</v>
+        <v>2.788</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.9</v>
+        <v>6.015</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>10.53</v>
+        <v>7.738</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.37</v>
+        <v>5.138</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.31</v>
+        <v>0.492</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.83</v>
+        <v>0.931</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>112.77</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>21.72</v>
+        <v>16.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.29</v>
+        <v>5.552</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>13.64</v>
+        <v>10.174</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.42</v>
+        <v>6.283</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.54</v>
+        <v>0.894</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>12.85</v>
+        <v>9.741</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.44</v>
+        <v>4.361</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.96</v>
+        <v>4.885</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.92</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>8.134</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.46</v>
+        <v>1.522</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>19.24</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.64</v>
+        <v>3.625</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>6.387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44829.55555555555</v>
+        <v>45179.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.44</v>
+        <v>17.977</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.43</v>
+        <v>13.558</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.36</v>
+        <v>1.001</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>16.62</v>
+        <v>39.344</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.67</v>
+        <v>32.009</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.69</v>
+        <v>13.606</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>22.78</v>
+        <v>50.673</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.25</v>
+        <v>21.876</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.06</v>
+        <v>10.256</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.26</v>
+        <v>14.364</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.68</v>
+        <v>15.732</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.19</v>
+        <v>17.031</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.93</v>
+        <v>5.112</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.02</v>
+        <v>14.287</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.24</v>
+        <v>19.947</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.53</v>
+        <v>12.037</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.13</v>
+        <v>0.3</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.46</v>
+        <v>0.887</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>84.23</v>
+        <v>210.126</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>16.87</v>
+        <v>39.874</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.55</v>
+        <v>13.187</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.85</v>
+        <v>26.488</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.76</v>
+        <v>14.42</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.89</v>
+        <v>1.903</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.2</v>
+        <v>26.733</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.9</v>
+        <v>11.349</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.52</v>
+        <v>10.621</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.3</v>
+        <v>12.578</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.1</v>
+        <v>17.239</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.1</v>
+        <v>0.707</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>21.21</v>
+        <v>46.499</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.88</v>
+        <v>7.797</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.94</v>
+        <v>16.184</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44829.5625</v>
+        <v>45179.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.26</v>
+        <v>22.383</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.85</v>
+        <v>16.832</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.76</v>
+        <v>1.002</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.09</v>
+        <v>48.928</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.84</v>
+        <v>40.032</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.86</v>
+        <v>17.221</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>67.917</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.69</v>
+        <v>27.171</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.85</v>
+        <v>12.567</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.48</v>
+        <v>17.962</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.25</v>
+        <v>19.59</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.43</v>
+        <v>20.992</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.38</v>
+        <v>6.052</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.13</v>
+        <v>17.67</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.49</v>
+        <v>24.934</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.33</v>
+        <v>14.813</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.265</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.896</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>9.93</v>
+        <v>261.648</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.5</v>
+        <v>49.415</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.04</v>
+        <v>16.31</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.1</v>
+        <v>33.105</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.05</v>
+        <v>17.733</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.19</v>
+        <v>2.331</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.4</v>
+        <v>34.098</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.92</v>
+        <v>14.201</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.98</v>
+        <v>12.945</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.13</v>
+        <v>15.26</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.35</v>
+        <v>21.024</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.461</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>8.17</v>
+        <v>62.08</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.39</v>
+        <v>9.497999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.31</v>
+        <v>20.184</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44829.56944444445</v>
+        <v>45179.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.18</v>
+        <v>5.13</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.08</v>
+        <v>3.86</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.36</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>11.38</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.22</v>
+        <v>9.06</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.18</v>
+        <v>3.73</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>12.16</v>
+        <v>22.12</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.18</v>
+        <v>6.26</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.31</v>
+        <v>3.17</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.98</v>
+        <v>3.97</v>
       </c>
       <c r="L5" s="4" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>55.68</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AC5" s="4" t="n">
         <v>3.78</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>44.12</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>2.99</v>
-      </c>
       <c r="AD5" s="4" t="n">
-        <v>3.98</v>
+        <v>5.06</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.34</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>11</v>
+        <v>20.8</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.63</v>
+        <v>2.33</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44829.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>15.66</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>78.48</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>15.69</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>18.26</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6.51</v>
+        <v>4.62</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_498.xlsx
+++ b/DATA_goal/Junction_Flooding_498.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45179.50694444445</v>
+        <v>44829.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.205</v>
+        <v>9.686</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.605</v>
+        <v>6.9</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.192</v>
+        <v>2.907</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>15.61</v>
+        <v>21.429</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.374</v>
+        <v>15.753</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.794</v>
+        <v>7.426</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.798</v>
+        <v>21.228</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.957000000000001</v>
+        <v>12.148</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.429</v>
+        <v>5.042</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.631</v>
+        <v>6.422</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.249</v>
+        <v>8.574</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.306</v>
+        <v>9.294</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.788</v>
+        <v>2.529</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.015</v>
+        <v>7.895</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.738</v>
+        <v>10.528</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.138</v>
+        <v>7.369</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.492</v>
+        <v>2.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.931</v>
+        <v>0.826</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>84.14</v>
+        <v>112.771</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>16.424</v>
+        <v>21.717</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.552</v>
+        <v>7.288</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.174</v>
+        <v>13.637</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.283</v>
+        <v>7.423</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.894</v>
+        <v>1.536</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>9.741</v>
+        <v>12.849</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.361</v>
+        <v>6.437</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.885</v>
+        <v>5.959</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.06</v>
+        <v>6.92</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.134</v>
+        <v>9.375999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.522</v>
+        <v>2.459</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>13.18</v>
+        <v>19.236</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.625</v>
+        <v>3.642</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.387</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45179.51388888889</v>
+        <v>44829.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.977</v>
+        <v>7.436</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.558</v>
+        <v>5.429</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.001</v>
+        <v>1.363</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>39.344</v>
+        <v>16.62</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>32.009</v>
+        <v>12.671</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.606</v>
+        <v>5.694</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>50.673</v>
+        <v>22.776</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>21.876</v>
+        <v>9.244999999999999</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.256</v>
+        <v>4.062</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.364</v>
+        <v>5.262</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.732</v>
+        <v>6.682</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>17.031</v>
+        <v>7.192</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.112</v>
+        <v>1.934</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.287</v>
+        <v>6.015</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>19.947</v>
+        <v>8.244</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.037</v>
+        <v>5.531</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.3</v>
+        <v>1.132</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.887</v>
+        <v>0.455</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>210.126</v>
+        <v>84.23399999999999</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>39.874</v>
+        <v>16.868</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.187</v>
+        <v>5.552</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>26.488</v>
+        <v>10.851</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.42</v>
+        <v>5.758</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.903</v>
+        <v>0.893</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>26.733</v>
+        <v>12.197</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.349</v>
+        <v>4.904</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.621</v>
+        <v>4.52</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.578</v>
+        <v>5.301</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>17.239</v>
+        <v>7.104</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.707</v>
+        <v>1.098</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>46.499</v>
+        <v>21.212</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.797</v>
+        <v>2.877</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.184</v>
+        <v>6.942</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45179.52083333334</v>
+        <v>44829.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>22.383</v>
+        <v>1.259</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>16.832</v>
+        <v>0.853</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.002</v>
+        <v>0.756</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>48.928</v>
+        <v>3.093</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>40.032</v>
+        <v>1.837</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>17.221</v>
+        <v>0.863</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>67.917</v>
+        <v>8.291</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>27.171</v>
+        <v>1.688</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.567</v>
+        <v>0.846</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>17.962</v>
+        <v>0.484</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>19.59</v>
+        <v>1.254</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>20.992</v>
+        <v>1.43</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>6.052</v>
+        <v>0.385</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>17.67</v>
+        <v>1.128</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>24.934</v>
+        <v>1.487</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.813</v>
+        <v>1.326</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.265</v>
+        <v>0.738</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.896</v>
+        <v>0.175</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>261.648</v>
+        <v>9.929</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>49.415</v>
+        <v>3.498</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>16.31</v>
+        <v>1.041</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>33.105</v>
+        <v>2.102</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>17.733</v>
+        <v>1.055</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.331</v>
+        <v>0.192</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>34.098</v>
+        <v>4.404</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>14.201</v>
+        <v>0.92</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.945</v>
+        <v>0.98</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.26</v>
+        <v>1.129</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>21.024</v>
+        <v>1.349</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.461</v>
+        <v>0.707</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>62.08</v>
+        <v>8.166</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.497999999999999</v>
+        <v>0.392</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>20.184</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45179.52777777778</v>
+        <v>44829.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.13</v>
+        <v>4.181</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.86</v>
+        <v>3.077</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.666</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.38</v>
+        <v>9.382999999999999</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.06</v>
+        <v>7.219</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.73</v>
+        <v>3.177</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>22.12</v>
+        <v>12.158</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.26</v>
+        <v>5.183</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.17</v>
+        <v>2.313</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.97</v>
+        <v>2.982</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.53</v>
+        <v>3.775</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5</v>
+        <v>4.085</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.63</v>
+        <v>1.081</v>
       </c>
       <c r="O5" s="4" t="n">
+        <v>3.384</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>4.582</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>3.106</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>44.122</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>9.334</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>3.123</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>5.967</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>3.203</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>6.236</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>2.759</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>2.991</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>3.985</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>10.999</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>1.627</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>3.903</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44829.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>78.48</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB6" s="4" t="n">
         <v>4.14</v>
       </c>
-      <c r="P5" s="4" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>55.68</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>4.62</v>
+      <c r="AC6" s="4" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>18.26</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>6.51</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_498.xlsx
+++ b/DATA_goal/Junction_Flooding_498.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44829.54861111111</v>
+        <v>45179.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.686</v>
+        <v>7.205</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.9</v>
+        <v>5.605</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.907</v>
+        <v>1.192</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>21.429</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>15.753</v>
+        <v>12.374</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>7.426</v>
+        <v>4.794</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>21.228</v>
+        <v>14.798</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>12.148</v>
+        <v>8.957000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.042</v>
+        <v>4.429</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.422</v>
+        <v>5.631</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.574</v>
+        <v>6.249</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>9.294</v>
+        <v>7.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.529</v>
+        <v>2.788</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.895</v>
+        <v>6.015</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>10.528</v>
+        <v>7.738</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.369</v>
+        <v>5.138</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.31</v>
+        <v>0.492</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.826</v>
+        <v>0.931</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>112.771</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>21.717</v>
+        <v>16.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.288</v>
+        <v>5.552</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>13.637</v>
+        <v>10.174</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.423</v>
+        <v>6.283</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.536</v>
+        <v>0.894</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>12.849</v>
+        <v>9.741</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.437</v>
+        <v>4.361</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.959</v>
+        <v>4.885</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.92</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.375999999999999</v>
+        <v>8.134</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.459</v>
+        <v>1.522</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>19.236</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.642</v>
+        <v>3.625</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>6.387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44829.55555555555</v>
+        <v>45179.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.436</v>
+        <v>17.977</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.429</v>
+        <v>13.558</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.363</v>
+        <v>1.001</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>16.62</v>
+        <v>39.344</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.671</v>
+        <v>32.009</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.694</v>
+        <v>13.606</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>22.776</v>
+        <v>50.673</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.244999999999999</v>
+        <v>21.876</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.062</v>
+        <v>10.256</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.262</v>
+        <v>14.364</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.682</v>
+        <v>15.732</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.192</v>
+        <v>17.031</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.934</v>
+        <v>5.112</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.015</v>
+        <v>14.287</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.244</v>
+        <v>19.947</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.531</v>
+        <v>12.037</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.132</v>
+        <v>0.3</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.455</v>
+        <v>0.887</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>84.23399999999999</v>
+        <v>210.126</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>16.868</v>
+        <v>39.874</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.552</v>
+        <v>13.187</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.851</v>
+        <v>26.488</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.758</v>
+        <v>14.42</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.893</v>
+        <v>1.903</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.197</v>
+        <v>26.733</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.904</v>
+        <v>11.349</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.52</v>
+        <v>10.621</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.301</v>
+        <v>12.578</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.104</v>
+        <v>17.239</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.098</v>
+        <v>0.707</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>21.212</v>
+        <v>46.499</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.877</v>
+        <v>7.797</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.942</v>
+        <v>16.184</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44829.5625</v>
+        <v>45179.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.259</v>
+        <v>22.383</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.853</v>
+        <v>16.832</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.756</v>
+        <v>1.002</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.093</v>
+        <v>48.928</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.837</v>
+        <v>40.032</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.863</v>
+        <v>17.221</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>8.291</v>
+        <v>67.917</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.688</v>
+        <v>27.171</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.846</v>
+        <v>12.567</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.484</v>
+        <v>17.962</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.254</v>
+        <v>19.59</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.43</v>
+        <v>20.992</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.385</v>
+        <v>6.052</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.128</v>
+        <v>17.67</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.487</v>
+        <v>24.934</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.326</v>
+        <v>14.813</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.738</v>
+        <v>0.265</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.175</v>
+        <v>0.896</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>9.929</v>
+        <v>261.648</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.498</v>
+        <v>49.415</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.041</v>
+        <v>16.31</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.102</v>
+        <v>33.105</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.055</v>
+        <v>17.733</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.192</v>
+        <v>2.331</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.404</v>
+        <v>34.098</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.92</v>
+        <v>14.201</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.98</v>
+        <v>12.945</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.129</v>
+        <v>15.26</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.349</v>
+        <v>21.024</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.707</v>
+        <v>0.461</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>8.166</v>
+        <v>62.08</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.392</v>
+        <v>9.497999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.31</v>
+        <v>20.184</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44829.56944444445</v>
+        <v>45179.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.181</v>
+        <v>5.13</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.077</v>
+        <v>3.86</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.666</v>
+        <v>0.36</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>9.382999999999999</v>
+        <v>11.38</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.219</v>
+        <v>9.06</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.177</v>
+        <v>3.73</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>12.158</v>
+        <v>22.12</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.183</v>
+        <v>6.26</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.313</v>
+        <v>3.17</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.982</v>
+        <v>3.97</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.775</v>
+        <v>4.53</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.085</v>
+        <v>5</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.081</v>
+        <v>1.63</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.384</v>
+        <v>4.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.582</v>
+        <v>5.73</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.106</v>
+        <v>3.58</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.593</v>
+        <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.216</v>
+        <v>0.33</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>44.122</v>
+        <v>55.68</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>9.334</v>
+        <v>11.88</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.123</v>
+        <v>3.82</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.967</v>
+        <v>7.81</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.203</v>
+        <v>4.29</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.468</v>
+        <v>0.55</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>6.236</v>
+        <v>10.76</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.759</v>
+        <v>3.21</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.55</v>
+        <v>3.21</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.991</v>
+        <v>3.78</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.985</v>
+        <v>5.06</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.521</v>
+        <v>0.34</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>10.999</v>
+        <v>20.8</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.627</v>
+        <v>2.33</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.903</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44829.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>15.66</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>78.48</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>15.69</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>18.26</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6.51</v>
+        <v>4.62</v>
       </c>
     </row>
   </sheetData>
